--- a/valins_automation/docs/temp.xlsx
+++ b/valins_automation/docs/temp.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22990459</t>
+          <t>22990458</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="L4" s="2" t="n">
-        <v>45333.70420138889</v>
+        <v>45334.35872685185</v>
       </c>
     </row>
     <row r="5">

--- a/valins_automation/docs/temp.xlsx
+++ b/valins_automation/docs/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\06_python\ppl\valins_automation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECCDEBC-935F-4648-B2CB-BD6476519666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB7FCE4-8F46-4D1B-BCC3-4D8857B3F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70" yWindow="1850" windowWidth="10640" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -377,7 +377,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -706,7 +706,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,7 +982,9 @@
       <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>23042757</v>
+      </c>
       <c r="H9" s="11" t="s">
         <v>74</v>
       </c>
@@ -1013,7 +1015,9 @@
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>23044417</v>
+      </c>
       <c r="H10" s="11" t="s">
         <v>75</v>
       </c>
@@ -1131,7 +1135,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1156,7 +1160,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1181,7 +1185,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1206,7 +1210,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1231,7 +1235,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1256,7 +1260,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1281,7 +1285,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1306,7 +1310,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1331,7 +1335,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1356,7 +1360,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1381,7 +1385,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1406,7 +1410,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1431,7 +1435,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1456,7 +1460,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1481,7 +1485,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1506,7 +1510,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1531,7 +1535,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1556,7 +1560,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1581,7 +1585,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1606,7 +1610,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1631,7 +1635,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1656,7 +1660,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1681,7 +1685,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1706,7 +1710,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1731,7 +1735,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1756,7 +1760,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1781,7 +1785,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1806,7 +1810,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1831,7 +1835,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1856,7 +1860,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1881,7 +1885,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1906,7 +1910,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1931,7 +1935,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1956,7 +1960,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1981,7 +1985,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2031,7 +2035,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>50</v>
       </c>

--- a/valins_automation/docs/temp.xlsx
+++ b/valins_automation/docs/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\06_python\ppl\valins_automation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB7FCE4-8F46-4D1B-BCC3-4D8857B3F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72620AF8-03DC-4C8E-A664-ABF4AD95541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70" yWindow="1850" windowWidth="10640" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="470" yWindow="880" windowWidth="10640" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -250,7 +250,19 @@
     <t>ODP-SUD-FAJ/030</t>
   </si>
   <si>
-    <t>ODP-SUD-FBC/051</t>
+    <t>ONT Gagal</t>
+  </si>
+  <si>
+    <t>ODP-SUD-FCL/08</t>
+  </si>
+  <si>
+    <t>ODP-SUD-FBC/074</t>
+  </si>
+  <si>
+    <t>ODP-SUD-FAB/041</t>
+  </si>
+  <si>
+    <t>ODP-SUD-FAZ/041</t>
   </si>
 </sst>
 </file>
@@ -372,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -401,6 +413,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,10 +1063,10 @@
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="H11" s="11"/>
       <c r="I11" s="3">
         <v>8</v>
       </c>
@@ -1064,28 +1079,36 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="10">
         <v>7</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="12">
+        <v>23045811</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="12">
+        <v>16</v>
+      </c>
+      <c r="J12" s="12">
+        <v>3</v>
+      </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1104,13 +1127,15 @@
       <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1130,9 +1155,15 @@
         <v>24</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4</v>
+      </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1154,7 +1185,9 @@
       <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1180,9 +1213,15 @@
         <v>26</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1204,7 +1243,9 @@
       <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1229,7 +1270,9 @@
       <c r="F18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1254,7 +1297,9 @@
       <c r="F19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1279,7 +1324,9 @@
       <c r="F20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1305,9 +1352,15 @@
         <v>31</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="H21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/valins_automation/docs/temp.xlsx
+++ b/valins_automation/docs/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,49 +501,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPON05-D7-SUD-4</t>
+          <t>GPON01-D7-MAT-3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>172.25.212.142</t>
+          <t>172.27.251.146</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FHTT9A1C4508</t>
+          <t>ZTEGC68BC66F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23048751</t>
+          <t>ONT Gagal</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ODP-SUD-FBD/024</t>
+          <t>ODP-MAT-KLLA/02</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-02-12 14:45:03</t>
+          <t>2024-02-16 12:04:04</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-02-12 14:56:16</t>
+          <t>2024-02-16 12:04:04</t>
         </is>
       </c>
     </row>
@@ -553,49 +553,49 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPON04-D7-SUD-4</t>
+          <t>GPON01-D7-MAT-3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>172.25.119.92</t>
+          <t>172.27.251.146</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ZTEGD4A1F265</t>
+          <t>FHTT9BF1A908</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23049084</t>
+          <t>23099986</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ODP-SUD-FAD/096</t>
+          <t>ODP-MAT-FK/03</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-02-12 14:56:23</t>
+          <t>2024-02-16 12:07:52</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-02-12 14:56:23</t>
+          <t>2024-02-16 12:07:52</t>
         </is>
       </c>
     </row>
@@ -605,33 +605,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ZTEGCCA7F052</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FDC/017</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ZTEGC862597B</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -641,33 +645,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZTEGCE78E8B7</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>FHTT96F967E8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FDD/001</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -677,33 +685,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON03-D7-MAT-5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.192.76</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ZTEGCD6DBFC9</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBP/022</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ZTEGCC54BC68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -713,33 +725,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON04-D7-MAT-4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.119.69</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ZTEGC04520F3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>ZTEGCFF3B632</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FR/080</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -749,33 +765,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON04-D7-MAT-4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.119.69</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZTEGC89702D8</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>FHTT918A9708</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FK/12</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -785,33 +805,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ZTEGC4A36F98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>ZTEGCD0F3044</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FDD/001</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -821,36 +845,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPON05-D7-SUD-4</t>
+          <t>GPON01-D7-MAT-3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>172.25.212.142</t>
+          <t>172.27.251.146</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FHTT98A0F668</t>
+          <t>ZTEGC895E0DB</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ODP-SUD-FBD/027</t>
+          <t>ODP-MAT-FM/01</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -861,36 +885,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GPON05-D7-SUD-4</t>
+          <t>GPON01-D7-MAT-3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>172.25.212.142</t>
+          <t>172.27.251.146</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FHTT99A5F798</t>
+          <t>FHTT97B358F8</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ODP-SUD-FBD/028</t>
+          <t>ODP-MAT-FK/03</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -901,32 +925,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GPON05-D7-SUD-4</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>172.25.212.142</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FHTT989DD668</t>
+          <t>ZTEGC85BEA93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GPON Tidak Ada</t>
+          <t>PORT Kosong</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -937,32 +963,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GPON04-D7-SUD-4</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>172.25.119.92</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ZTEGC4558B2F</t>
+          <t>FHTT9D4C4E48</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Port Tidak Ada</t>
+          <t>PORT Kosong</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -973,33 +1001,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ZTEGCD76D949</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>FHTT99AB9250</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBS/069</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
     </row>
@@ -1009,33 +1041,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GPON03-D7-SUD-5</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>172.25.192.69</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FHTT9B058DD8</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Port Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>ALCLB3A6299E</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FDA/021</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
     </row>
@@ -1045,33 +1081,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ZTEGCFF3E63B</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>FHTT9D4BF340</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBW/046</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
     </row>
@@ -1081,36 +1121,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GPON03-D7-SUD-5</t>
+          <t>GPON01-D7-MAT-3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>172.25.192.69</t>
+          <t>172.27.251.146</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ZTEGCFF4069A</t>
+          <t>FHTT918AC678</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ODP-SUD-FBC/031</t>
+          <t>ODP-MAT-FK/08</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1121,33 +1161,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON03-D7-MAT-5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.192.76</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ZTEGCFFFDB08</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>FHTT9BF1A020</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FF/16</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
     </row>
@@ -1157,33 +1201,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON02-D7-MAT-3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.192.116</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ZTEGC826B913</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>FHTT9A2B3330</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FZ/01</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
     </row>
@@ -1193,33 +1241,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ZTEGD369823B</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>FHTT981429E8</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FAG/083</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
     </row>
@@ -1229,33 +1281,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GPON03-D7-SUD-5</t>
+          <t>GPON02-D7-MAT-3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>172.25.192.69</t>
+          <t>172.25.192.116</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ALCLB3A8065B</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Port Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>FHTT961302A8</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FK/22</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
     </row>
@@ -1265,33 +1321,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GPON03-D7-SUD-5</t>
+          <t>GPON02-D7-MAT-3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>172.25.192.69</t>
+          <t>172.25.192.116</t>
         </is>
       </c>
       <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>FHTT946BB6F8</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FY/30</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>ALCLB3A80221</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ODP Full</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
     </row>
@@ -1301,32 +1361,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON03-D7-MAT-5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.192.76</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZTEGCFF3B58C</t>
+          <t>FHTT96F5FEC8</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>GPON Tidak Ada</t>
+          <t>PORT Kosong</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1337,33 +1399,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON05-D7-MAT-4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.119.107</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ZTEGD06E6F0C</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>FHTT9B0351D0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBP/155</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
     </row>
@@ -1373,36 +1439,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GPON05-D7-SUD-4</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>172.25.212.142</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FHTT9B068000</t>
+          <t>FHTT9E7B8EF8</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ODP-SUD-FAZ/045</t>
+          <t>ODP-MAT-FBP/106</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1413,33 +1479,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ZTEGD0791810</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>FHTT9180DE40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBP/109</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
     </row>
@@ -1449,33 +1519,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GPON03-D7-SUD-5</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>172.25.192.69</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FHTT9B019DF0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Port Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>FHTT9B085B18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FAT/044</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
     </row>
@@ -1485,36 +1559,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GPON03-D7-SUD-5</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>172.25.192.69</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FHTT9B22E1B8</t>
+          <t>FHTT113ADBA0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ODP-SUD-FAZ/022</t>
+          <t>ODP-MAT-FBS/057</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1525,33 +1599,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON07-D7-MAT-4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.212.139</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ZTEGD069A695</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>FHTT917A9598</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FK/116</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
     </row>
@@ -1561,33 +1639,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GPON07-D7-SUD-3</t>
+          <t>GPON03-D7-MAT-5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>172.25.214.81</t>
+          <t>172.25.192.76</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ZTEGD08384DD</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>GPON Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>ALCLB288ED5A</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FP/077</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>16</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
     </row>
@@ -1597,35 +1679,837 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GPON03-D7-SUD-5</t>
+          <t>GPON05-D7-MAT-4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>172.25.192.69</t>
+          <t>172.25.119.107</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ZTEGD06E85C5</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Port Tidak Ada</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>FHTT113A32A8</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FAU/027</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GPON06-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>172.25.119.120</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ZTEGD328A7E7</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBS/010</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GPON07-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>172.25.212.139</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>13</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ZTEGCD76E279</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FAD/037</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GPON07-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>172.25.212.139</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>16</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ZTEGC8A99C09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PORT Kosong</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GPON02-D7-MAT-3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>172.25.192.116</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>17</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>FHTT91976F20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FAW/45</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GPON04-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>172.25.119.69</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>FHTT96F74870</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBN/028</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GPON03-D7-MAT-5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>172.25.192.76</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ZTEGC86BF396</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FP/35</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GPON01-D7-MAT-3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>172.27.251.146</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>FHTT96154FE8</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FP/21</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GPON01-D7-MAT-3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>172.27.251.146</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ALCLB3490DE5</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FP/21</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GPON04-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>172.25.119.69</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>FHTT1137DEE8</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBN/003</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GPON05-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>172.25.119.107</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FHTT96FA1CD8</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBP/039</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GPON05-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>172.25.119.107</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>FHTT946B6AA0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FAE/079</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GPON06-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>172.25.119.120</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>FHTT9E7CD2C8</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBP/089</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GPON06-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>172.25.119.120</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ZTEGD33C6CD8</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FAB/054</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GPON01-D7-MAT-3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>172.27.251.146</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>FHTT9C7C3D18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FN/041</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GPON06-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>172.25.119.120</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FHTT9E7CD218</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FAG/025</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GPON04-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>172.25.119.69</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ZTEGD321588D</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FK/094</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GPON01-D7-MAT-3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>172.27.251.146</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>14</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>FHTT91B0AF18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FK/03</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GPON07-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>172.25.212.139</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>15</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>FHTT99AEBF68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FDE/001</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GPON07-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>172.25.212.139</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>14</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>FHTT99998868</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBW/035</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GPON05-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>172.25.119.107</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ZTEGD3588150</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBN/134</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
